--- a/Data Files/login_file.xlsx
+++ b/Data Files/login_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>usrname</t>
   </si>
@@ -27,12 +27,6 @@
     <t>mssg</t>
   </si>
   <si>
-    <t>suhardi</t>
-  </si>
-  <si>
-    <t>Error authenticating user. The user name or password is incorrect.</t>
-  </si>
-  <si>
     <t>hardi</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>ccccc</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,40 +412,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
